--- a/Data/Processed/GLM_results.xlsx
+++ b/Data/Processed/GLM_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Desktop\Artigos_coauthor\Iberian_plants\Iberian_Andalucia\Data\Processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Desktop\Artigos_coauthor\Iberian_plants\Extinction_dynamics_Iberic\Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E9DB7-929D-4690-AB79-91DFD6EE8A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20786255-662C-49D0-A062-259C0D841B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE1D6569-AB9A-400A-AA91-A4E42FC9C824}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>Coefficients</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Corrected age</t>
   </si>
   <si>
-    <t>Diversification rate</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt; 0.01</t>
   </si>
   <si>
     <t>&lt; 0.001</t>
@@ -144,6 +138,9 @@
   </si>
   <si>
     <t>Eastern Andalusia Flora</t>
+  </si>
+  <si>
+    <t>Speciation rate</t>
   </si>
 </sst>
 </file>
@@ -220,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -235,20 +232,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1792C2-92C6-4DD2-8B0D-9146E7D70367}">
   <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,10 +599,10 @@
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -611,16 +614,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -631,31 +634,31 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="E4" s="2">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>21.42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.48599999999999999</v>
+        <v>19.454999999999998</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.48399999999999999</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -666,24 +669,24 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E5" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+        <v>-2.89</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -693,24 +696,24 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>-5.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E6" s="2">
         <v>2E-3</v>
       </c>
       <c r="F6" s="2">
-        <v>-2.2799999999999998</v>
+        <v>-1.89</v>
       </c>
       <c r="G6" s="2">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -720,24 +723,24 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>1.9E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>0.248</v>
       </c>
       <c r="F7" s="2">
-        <v>0.25</v>
+        <v>1.29</v>
       </c>
       <c r="G7" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -747,28 +750,28 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.89</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.161</v>
+      </c>
+      <c r="F8" s="5">
+        <v>17.95</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F8" s="5">
-        <v>19.82</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I8" s="8">
         <v>0.47899999999999998</v>
       </c>
       <c r="J8" s="1"/>
@@ -780,24 +783,24 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E9" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F9" s="5">
-        <v>-2.44</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <v>-2.8570000000000002</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -807,24 +810,24 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>-1.0999999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E10" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F10" s="5">
-        <v>-2.79</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+        <v>-2.3210000000000002</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -834,24 +837,24 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.25</v>
       </c>
       <c r="E11" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F11" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="G11" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -861,29 +864,29 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="E12" s="2">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="2">
-        <v>16.809999999999999</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0.47799999999999998</v>
+        <v>14.99</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.47899999999999998</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -894,24 +897,24 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>-1.4E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E13" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F13" s="2">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+        <v>-2.66</v>
+      </c>
+      <c r="G13" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -921,24 +924,24 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>-2.5999999999999999E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="E14" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F14" s="2">
-        <v>-2.89</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+        <v>-2.3090000000000002</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -948,24 +951,24 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
-        <v>6</v>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="2">
-        <v>-2.5999999999999999E-2</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>-0.35</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="G15" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+        <v>0.48</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -975,28 +978,28 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="5">
-        <v>3.16</v>
+        <v>3.02</v>
       </c>
       <c r="E16" s="5">
-        <v>0.23</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F16" s="5">
-        <v>13.73</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6">
+        <v>11.69</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <v>0.48599999999999999</v>
       </c>
       <c r="J16" s="1"/>
@@ -1008,24 +1011,24 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E17" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F17" s="5">
-        <v>-2.0510000000000002</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+        <v>-2.54</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1035,24 +1038,24 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.05</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F18" s="5">
-        <v>-2.36</v>
+        <v>-1.62</v>
       </c>
       <c r="G18" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+        <v>0.105</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1062,24 +1065,24 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10" t="s">
-        <v>6</v>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="5">
-        <v>-3.5000000000000003E-2</v>
+        <v>0.185</v>
       </c>
       <c r="E19" s="5">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="F19" s="5">
-        <v>-0.44</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="G19" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1089,30 +1092,30 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="E20" s="2">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F20" s="2">
-        <v>14.56</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
+        <v>13.34</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="10">
         <v>0.65600000000000003</v>
       </c>
       <c r="J20" s="1"/>
@@ -1124,24 +1127,24 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E21" s="2">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G21" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1151,9 +1154,9 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D22" s="2">
         <v>-3.0000000000000001E-3</v>
@@ -1162,13 +1165,13 @@
         <v>2E-3</v>
       </c>
       <c r="F22" s="2">
-        <v>-1.19</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="G22" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+        <v>0.24</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1178,77 +1181,77 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
-        <v>6</v>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="E23" s="2">
-        <v>0.08</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F23" s="2">
-        <v>-0.4</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="G23" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+        <v>0.83</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F24" s="5">
+        <v>12.19</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2.3959999999999999</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="F24" s="5">
-        <v>13.53</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="H24" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I24" s="8">
         <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="5">
         <v>2E-3</v>
       </c>
       <c r="E25" s="5">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F25" s="5">
-        <v>0.17</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="G25" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="5">
@@ -1258,217 +1261,227 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F26" s="5">
-        <v>-1.1870000000000001</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="G26" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+        <v>0.251</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="10" t="s">
-        <v>6</v>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="5">
-        <v>-0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="E27" s="5">
-        <v>0.08</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F27" s="5">
-        <v>-0.46300000000000002</v>
+        <v>-0.31</v>
       </c>
       <c r="G27" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="2">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F28" s="2">
-        <v>11.97</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I28" s="7">
-        <v>0.65500000000000003</v>
+      <c r="I28" s="10">
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E29" s="2">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F29" s="2">
-        <v>0.24</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="G29" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+        <v>0.86</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2">
-        <v>-0.01</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E30" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F30" s="2">
-        <v>-1.31</v>
+        <v>-1.298</v>
       </c>
       <c r="G30" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
-        <v>6</v>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>-0.05</v>
+        <v>-0.17</v>
       </c>
       <c r="E31" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>0.31</v>
       </c>
       <c r="F31" s="2">
-        <v>-0.59699999999999998</v>
+        <v>-0.53700000000000003</v>
       </c>
       <c r="G31" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="5">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="E32" s="5">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0.65200000000000002</v>
+        <v>8.84</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.65</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E33" s="5">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F33" s="5">
-        <v>0.35</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G33" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="5">
-        <v>-3.5999999999999997E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F34" s="5">
-        <v>-1.54</v>
+        <v>-1.605</v>
       </c>
       <c r="G34" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+        <v>0.109</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="5">
-        <v>-6.9000000000000006E-2</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E35" s="5">
-        <v>8.6999999999999994E-2</v>
+        <v>0.32</v>
       </c>
       <c r="F35" s="5">
-        <v>-0.79</v>
+        <v>-0.89900000000000002</v>
       </c>
       <c r="G35" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H12:H15"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="H32:H35"/>
     <mergeCell ref="A4:A19"/>
@@ -1485,16 +1498,6 @@
     <mergeCell ref="H20:H23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="H24:H27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="H8:H11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
